--- a/biology/Histoire de la zoologie et de la botanique/Herman_Petignat/Herman_Petignat.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Herman_Petignat/Herman_Petignat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herman Germain Petignat, né à Porrentruy, alors canton de Berne (Suisse) le 2 mai 1923 et mort le 4 mars 2000 (à 76 ans) à Tuléar (Madagascar) est un botaniste suisse. Il a fondé l'arboretum d'Antsokay.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Herman Petignat arrive pour la première fois à Madagascar en 1952 en tant que missionnaire de l’Église catholique et affecté à Marolambo à l'est de Madagascar. En 1958, il est expulsé de Madagascar et rentre en Europe, part à Lille pour entrer à l'école de journalisme. Il retourne à Madagascar en 1961 après l’indépendance du pays et obtient la citoyenneté malgache. Il devient membre du PSD (Parti social démocrate) aux côtés d'André Resampa, ministre de l'intérieur de l’administration de Philibert Tsiranana et secrétaire général du PSD. Il prend la direction de l'imprimerie nationale FBM (Fanotam-boky Malagasy).
 Il part à Tuléar dans le sud-ouest en 1972 et travaille dans une exploitation forestière à Sakaraha mais abandonne très vite pour travailler à son propre compte et installe une ferme à Tuléar. En 1980, il déplace la ferme en dehors de la ville et trouve un terrain près du village d'Antsokay. Au même endroit et au moment même  où de nombreuses plantes poussent, il a l'idée de créer une collection privée de plantes endémiques du sud-ouest de Madagascar. Il crée un réseau d'amis botanistes dont le professeur Werner Rauh de l'Université de Heidelberg, ensemble ils décrivent de nombreuses espèces de plantes succulentes. Vers les années 1990, la collection de plantes est incluse dans un jardin botanique ouvert au public et nommé Arboretum d'Antsokay.
@@ -544,7 +558,9 @@
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Euphorbia spinicapsula Rauh &amp; Petignat, 
 Euphorbia kamponii Rauh &amp; Petignat,
@@ -577,7 +593,9 @@
           <t>Nommé en hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ceropegia petignatii
 Cynanchum petignatii</t>
@@ -608,7 +626,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jean-Michel Lebigre et Hermann Petignat, Répertoire des plantes du Sud-Ouest de Madagascar, Talence, coll. « Feuillets DyMSET » (no 1), mars 1997, 38 p.</t>
         </is>
